--- a/output/1Y_P71_1VAL-D.xlsx
+++ b/output/1Y_P71_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.806</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>561.6084</v>
       </c>
-      <c r="G2" s="1">
-        <v>561.6084</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.163500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.806</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.163500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>18.3524</v>
       </c>
+      <c r="E3" s="1">
+        <v>561.6084</v>
+      </c>
       <c r="F3" s="1">
         <v>544.8878999999999</v>
       </c>
-      <c r="G3" s="1">
-        <v>1106.4963</v>
-      </c>
       <c r="H3" s="1">
-        <v>20201.5244</v>
+        <v>10253.3977</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0751</v>
+        <v>10253.3977</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.806</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20201.5244</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0127</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.7873</v>
       </c>
+      <c r="E4" s="1">
+        <v>1106.4963</v>
+      </c>
       <c r="F4" s="1">
         <v>562.1989</v>
       </c>
-      <c r="G4" s="1">
-        <v>1668.6952</v>
-      </c>
       <c r="H4" s="1">
-        <v>29527.7281</v>
+        <v>19579.5628</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9781</v>
+        <v>19579.5628</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0751</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29527.7281</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0223</v>
+        <v>-0.0333</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>18.1269</v>
       </c>
+      <c r="E5" s="1">
+        <v>1668.6952</v>
+      </c>
       <c r="F5" s="1">
         <v>551.6663</v>
       </c>
-      <c r="G5" s="1">
-        <v>2220.3615</v>
-      </c>
       <c r="H5" s="1">
-        <v>40039.5567</v>
+        <v>30091.4133</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0151</v>
+        <v>30091.4133</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9781</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40039.5567</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0129</v>
+        <v>0.0173</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.8817</v>
       </c>
+      <c r="E6" s="1">
+        <v>2220.3615</v>
+      </c>
       <c r="F6" s="1">
         <v>559.2309</v>
       </c>
-      <c r="G6" s="1">
-        <v>2779.5924</v>
-      </c>
       <c r="H6" s="1">
-        <v>49446.1698</v>
+        <v>39498.0105</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9882</v>
+        <v>39498.0105</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0151</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49446.1698</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0119</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.8917</v>
       </c>
+      <c r="E7" s="1">
+        <v>2779.5924</v>
+      </c>
       <c r="F7" s="1">
         <v>558.9184</v>
       </c>
-      <c r="G7" s="1">
-        <v>3338.5108</v>
-      </c>
       <c r="H7" s="1">
-        <v>59422.154</v>
+        <v>49473.9657</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9721</v>
+        <v>49473.9657</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9882</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59422.154</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0004</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.2541</v>
       </c>
+      <c r="E8" s="1">
+        <v>3338.5108</v>
+      </c>
       <c r="F8" s="1">
         <v>615.2294000000001</v>
       </c>
-      <c r="G8" s="1">
-        <v>3953.7402</v>
-      </c>
       <c r="H8" s="1">
-        <v>63931.1884</v>
+        <v>53983.0522</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.7048</v>
+        <v>53983.0522</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>17.9721</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.5</v>
       </c>
-      <c r="L8" s="1">
-        <v>1502.3299</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-8497.670099999999</v>
+        <v>1250.8166</v>
       </c>
       <c r="O8" s="1">
-        <v>1502.3299</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>65433.5182</v>
+        <v>-8749.1834</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0575</v>
+        <v>-0.09229999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.4549</v>
       </c>
+      <c r="E9" s="1">
+        <v>3953.7402</v>
+      </c>
       <c r="F9" s="1">
-        <v>666.4854</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4620.2257</v>
+        <v>663.2306</v>
       </c>
       <c r="H9" s="1">
-        <v>71034.5834</v>
+        <v>60787.5695</v>
       </c>
       <c r="I9" s="1">
-        <v>80300.466</v>
+        <v>1250.8166</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3802</v>
+        <v>62038.3861</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70250.1633</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.768</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10300.466</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1201.8639</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>72236.4472</v>
+        <v>-10250.1633</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0424</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.6183</v>
       </c>
+      <c r="E10" s="1">
+        <v>4616.9709</v>
+      </c>
       <c r="F10" s="1">
-        <v>659.5126</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5279.7383</v>
+        <v>656.2919000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>82032.8775</v>
+        <v>71735.26119999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90600.9319</v>
+        <v>1000.6533</v>
       </c>
       <c r="J10" s="1">
-        <v>17.1601</v>
+        <v>72735.9145</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80500.3266</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.4357</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10300.466</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>901.3979</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>82934.2754</v>
+        <v>-10250.1633</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.008500000000000001</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.0526</v>
       </c>
+      <c r="E11" s="1">
+        <v>5273.2627</v>
+      </c>
       <c r="F11" s="1">
-        <v>641.6695999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5921.4079</v>
+        <v>638.5359999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>94560.7393</v>
+        <v>84210.3144</v>
       </c>
       <c r="I11" s="1">
-        <v>100901.3979</v>
+        <v>750.49</v>
       </c>
       <c r="J11" s="1">
-        <v>17.0401</v>
+        <v>84960.8043</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90750.49000000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.2096</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10300.466</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>600.9319</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>95161.6713</v>
+        <v>-10250.1633</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.024</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.7562</v>
       </c>
+      <c r="E12" s="1">
+        <v>5911.7987</v>
+      </c>
       <c r="F12" s="1">
-        <v>653.7405</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6575.1484</v>
+        <v>650.5479</v>
       </c>
       <c r="H12" s="1">
-        <v>103062.1636</v>
+        <v>92664.48940000001</v>
       </c>
       <c r="I12" s="1">
-        <v>111201.8639</v>
+        <v>500.3266</v>
       </c>
       <c r="J12" s="1">
-        <v>16.9124</v>
+        <v>93164.81600000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101000.6533</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.0846</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10300.466</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>300.466</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>103362.6296</v>
+        <v>-10250.1633</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0171</v>
+        <v>-0.0189</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.3605</v>
       </c>
+      <c r="E13" s="1">
+        <v>6562.3467</v>
+      </c>
       <c r="F13" s="1">
-        <v>670.5814</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7245.7298</v>
+        <v>667.3066</v>
       </c>
       <c r="H13" s="1">
-        <v>110720.5484</v>
+        <v>100277.907</v>
       </c>
       <c r="I13" s="1">
-        <v>121502.3299</v>
+        <v>250.1633</v>
       </c>
       <c r="J13" s="1">
-        <v>16.7688</v>
+        <v>100528.0704</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111250.8166</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.9529</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10300.466</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>110720.5484</v>
+        <v>-10250.1633</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0233</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.2796</v>
       </c>
+      <c r="E14" s="1">
+        <v>7229.6533</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7245.7298</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6562.3467</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109892.8989</v>
       </c>
       <c r="I14" s="1">
-        <v>121502.3299</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.7688</v>
+        <v>109892.8989</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111250.8166</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.3881</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>110137.2671</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>110137.2671</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110137.2671</v>
+        <v>99749.6381</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0877</v>
+        <v>-0.0057</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.806</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>561.6084</v>
       </c>
       <c r="G2" s="1">
-        <v>561.6084</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.163500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.806</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.163500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>18.3524</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>561.6084</v>
       </c>
       <c r="F3" s="1">
         <v>533.8498</v>
       </c>
       <c r="G3" s="1">
-        <v>1095.4582</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10253.3977</v>
       </c>
       <c r="I3" s="1">
-        <v>19797.4248</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0723</v>
+        <v>10253.3977</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9797.424800000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.4453</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9797.424800000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>202.5752</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20202.5752</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0128</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.7873</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1095.4582</v>
       </c>
       <c r="F4" s="1">
         <v>573.5876</v>
       </c>
       <c r="G4" s="1">
-        <v>1669.0459</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29533.9334</v>
+        <v>19384.2429</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>202.5752</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9743</v>
+        <v>19586.8182</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.2572</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10202.5752</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29533.9334</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0221</v>
+        <v>-0.0329</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>18.1269</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1669.0459</v>
       </c>
       <c r="F5" s="1">
         <v>549.122</v>
       </c>
       <c r="G5" s="1">
-        <v>2218.1679</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30097.7371</v>
       </c>
       <c r="I5" s="1">
-        <v>39953.8804</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0121</v>
+        <v>30097.7371</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29953.8804</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9467</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9953.8804</v>
       </c>
-      <c r="O5" s="1">
-        <v>46.1196</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40046.1196</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.013</v>
+        <v>0.0173</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.8817</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2218.1679</v>
       </c>
       <c r="F6" s="1">
         <v>561.8101</v>
       </c>
       <c r="G6" s="1">
-        <v>2779.978</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>49453.0287</v>
+        <v>39458.9888</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>46.1196</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9858</v>
+        <v>39505.1084</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0329</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10046.1196</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49453.0287</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0119</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.8917</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2779.978</v>
       </c>
       <c r="F7" s="1">
         <v>558.9184</v>
       </c>
       <c r="G7" s="1">
-        <v>3338.8964</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>59429.0167</v>
+        <v>49480.8284</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.97</v>
+        <v>49480.8284</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9858</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59429.0167</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0004</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.2541</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3338.8964</v>
       </c>
       <c r="F8" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3954.1258</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>63937.4229</v>
+        <v>53989.2867</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.703</v>
+        <v>53989.2867</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>17.97</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.5</v>
       </c>
-      <c r="L8" s="1">
-        <v>1502.5034</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-8497.4966</v>
+        <v>1250.9901</v>
       </c>
       <c r="O8" s="1">
-        <v>1502.5034</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>65439.9262</v>
+        <v>-8749.009899999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0575</v>
+        <v>-0.09229999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.4549</v>
       </c>
       <c r="E9" s="1">
+        <v>3954.1258</v>
+      </c>
+      <c r="F9" s="1">
+        <v>727.9885</v>
+      </c>
+      <c r="G9" s="1">
         <v>80000</v>
       </c>
-      <c r="F9" s="1">
-        <v>744.2626</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4698.3883</v>
-      </c>
       <c r="H9" s="1">
-        <v>72236.311</v>
+        <v>60793.4975</v>
       </c>
       <c r="I9" s="1">
-        <v>81502.5034</v>
+        <v>1250.9901</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3469</v>
+        <v>62044.4876</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71250.9901</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.0194</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-11502.5034</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>72236.311</v>
+        <v>-11250.9901</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0425</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.6183</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4682.1143</v>
       </c>
       <c r="F10" s="1">
         <v>640.2745</v>
       </c>
       <c r="G10" s="1">
-        <v>5338.6629</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>82948.40670000001</v>
+        <v>72747.41469999999</v>
       </c>
       <c r="I10" s="1">
-        <v>91502.5034</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.1396</v>
+        <v>72747.41469999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81250.9901</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3535</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>82948.40670000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.008699999999999999</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.0526</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5322.3889</v>
       </c>
       <c r="F11" s="1">
         <v>622.952</v>
       </c>
       <c r="G11" s="1">
-        <v>5961.6149</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>95202.8172</v>
+        <v>84994.8244</v>
       </c>
       <c r="I11" s="1">
-        <v>101502.5034</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.026</v>
+        <v>84994.8244</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91250.9901</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1447</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>95202.8172</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0243</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.7562</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5945.3409</v>
       </c>
       <c r="F12" s="1">
         <v>634.6708</v>
       </c>
       <c r="G12" s="1">
-        <v>6596.2857</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>103393.4805</v>
+        <v>93190.246</v>
       </c>
       <c r="I12" s="1">
-        <v>111502.5034</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.9038</v>
+        <v>93190.246</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101250.9901</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.0303</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>103393.4805</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0172</v>
+        <v>-0.019</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.3605</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6580.0117</v>
       </c>
       <c r="F13" s="1">
         <v>651.0205</v>
       </c>
       <c r="G13" s="1">
-        <v>7247.3062</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>110744.6364</v>
+        <v>100547.8428</v>
       </c>
       <c r="I13" s="1">
-        <v>121502.5034</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.7652</v>
+        <v>100547.8428</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111250.9901</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.9074</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>110744.6364</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0234</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>15.2796</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7231.0322</v>
       </c>
       <c r="F14" s="1">
-        <v>-7247.3062</v>
+        <v>-7231.0322</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109913.8584</v>
       </c>
       <c r="I14" s="1">
-        <v>121502.5034</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.7652</v>
+        <v>109913.8584</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111250.9901</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.3852</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>110161.2283</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>110161.2283</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110161.2283</v>
+        <v>109913.8584</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0877</v>
+        <v>-0.0057</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.806</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>561.6084</v>
       </c>
       <c r="G2" s="1">
-        <v>561.6084</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.163500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.806</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.163500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>18.3524</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>561.6084</v>
       </c>
       <c r="F3" s="1">
         <v>536.5884</v>
       </c>
       <c r="G3" s="1">
-        <v>1098.1969</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10253.3977</v>
       </c>
       <c r="I3" s="1">
-        <v>19847.6855</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.073</v>
+        <v>10253.3977</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9847.6855</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.5348</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9847.6855</v>
       </c>
-      <c r="O3" s="1">
-        <v>152.3145</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20202.3145</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0127</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.7873</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1098.1969</v>
       </c>
       <c r="F4" s="1">
         <v>570.7619999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1668.9589</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29532.3938</v>
+        <v>19432.7035</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>152.3145</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9753</v>
+        <v>19585.018</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.2117</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10152.3145</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29532.3938</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0222</v>
+        <v>-0.033</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>18.1269</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1668.9589</v>
       </c>
       <c r="F5" s="1">
         <v>551.6663</v>
       </c>
       <c r="G5" s="1">
-        <v>2220.6252</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40044.3115</v>
+        <v>30096.1681</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0129</v>
+        <v>30096.1681</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9753</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40044.3115</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0129</v>
+        <v>0.0173</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.8817</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2220.6252</v>
       </c>
       <c r="F6" s="1">
         <v>559.2309</v>
       </c>
       <c r="G6" s="1">
-        <v>2779.8561</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>49450.8603</v>
+        <v>39502.701</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9865</v>
+        <v>39502.701</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0129</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49450.8603</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0119</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.8917</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2779.8561</v>
       </c>
       <c r="F7" s="1">
         <v>558.9184</v>
       </c>
       <c r="G7" s="1">
-        <v>3338.7745</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>59426.8471</v>
+        <v>49478.6588</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9707</v>
+        <v>49478.6588</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9865</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59426.8471</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0004</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.2541</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3338.7745</v>
       </c>
       <c r="F8" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3954.0039</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>63935.4519</v>
+        <v>53987.3157</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.7036</v>
+        <v>53987.3157</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>17.9707</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.5</v>
       </c>
-      <c r="L8" s="1">
-        <v>1502.4485</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-8497.5515</v>
+        <v>1250.9352</v>
       </c>
       <c r="O8" s="1">
-        <v>1502.4485</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>65437.9004</v>
+        <v>-8749.0648</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0575</v>
+        <v>-0.09229999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.4549</v>
       </c>
       <c r="E9" s="1">
+        <v>3954.0039</v>
+      </c>
+      <c r="F9" s="1">
+        <v>727.985</v>
+      </c>
+      <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
-      <c r="F9" s="1">
-        <v>744.259</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4698.2629</v>
-      </c>
       <c r="H9" s="1">
-        <v>72234.3823</v>
+        <v>60791.6234</v>
       </c>
       <c r="I9" s="1">
-        <v>81502.4485</v>
+        <v>1250.9352</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3474</v>
+        <v>62042.5586</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71250.93520000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.0199</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-11502.4485</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>72234.3823</v>
+        <v>-11250.9352</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0425</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.6183</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4681.9889</v>
       </c>
       <c r="F10" s="1">
         <v>640.2745</v>
       </c>
       <c r="G10" s="1">
-        <v>5338.5374</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82946.45759999999</v>
+        <v>72745.4656</v>
       </c>
       <c r="I10" s="1">
-        <v>91502.4485</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.14</v>
+        <v>72745.4656</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81250.93520000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3539</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>82946.45759999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.008699999999999999</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.0526</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5322.2634</v>
       </c>
       <c r="F11" s="1">
         <v>622.952</v>
       </c>
       <c r="G11" s="1">
-        <v>5961.4895</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>95200.81389999999</v>
+        <v>84992.82120000001</v>
       </c>
       <c r="I11" s="1">
-        <v>101502.4485</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.0264</v>
+        <v>84992.82120000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91250.93520000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1451</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>95200.81389999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0243</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.7562</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5945.2155</v>
       </c>
       <c r="F12" s="1">
         <v>634.6708</v>
       </c>
       <c r="G12" s="1">
-        <v>6596.1603</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103391.5142</v>
+        <v>93188.2798</v>
       </c>
       <c r="I12" s="1">
-        <v>111502.4485</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.9041</v>
+        <v>93188.2798</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101250.9352</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.0307</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>103391.5142</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0172</v>
+        <v>-0.019</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.3605</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6579.8863</v>
       </c>
       <c r="F13" s="1">
         <v>651.0205</v>
       </c>
       <c r="G13" s="1">
-        <v>7247.1807</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>110742.7196</v>
+        <v>100545.9259</v>
       </c>
       <c r="I13" s="1">
-        <v>121502.4485</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.7655</v>
+        <v>100545.9259</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111250.9352</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.9077</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>110742.7196</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0234</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>15.2796</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7230.9067</v>
       </c>
       <c r="F14" s="1">
-        <v>-7247.1807</v>
+        <v>-7230.9067</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109911.9516</v>
       </c>
       <c r="I14" s="1">
-        <v>121502.4485</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.7655</v>
+        <v>109911.9516</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111250.9352</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.3855</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>110159.3215</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>110159.3215</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110159.3215</v>
+        <v>109911.9516</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0877</v>
+        <v>-0.0057</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.806</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>561.6084</v>
       </c>
       <c r="G2" s="1">
-        <v>561.6084</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.163500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.806</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.163500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>18.3524</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>561.6084</v>
       </c>
       <c r="F3" s="1">
         <v>539.3271</v>
       </c>
       <c r="G3" s="1">
-        <v>1100.9355</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10253.3977</v>
       </c>
       <c r="I3" s="1">
-        <v>19897.9462</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0737</v>
+        <v>10253.3977</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9897.9462</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6243</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9897.9462</v>
       </c>
-      <c r="O3" s="1">
-        <v>102.0538</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20202.0538</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0127</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.7873</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1100.9355</v>
       </c>
       <c r="F4" s="1">
         <v>567.9363</v>
       </c>
       <c r="G4" s="1">
-        <v>1668.8718</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29530.8542</v>
+        <v>19481.1641</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>102.0538</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9762</v>
+        <v>19583.2179</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1664</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10102.0538</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29530.8542</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0222</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>18.1269</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1668.8718</v>
       </c>
       <c r="F5" s="1">
         <v>551.6663</v>
       </c>
       <c r="G5" s="1">
-        <v>2220.5382</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40042.7425</v>
+        <v>30094.5991</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0137</v>
+        <v>30094.5991</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9762</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40042.7425</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0129</v>
+        <v>0.0173</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.8817</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2220.5382</v>
       </c>
       <c r="F6" s="1">
         <v>559.2309</v>
       </c>
       <c r="G6" s="1">
-        <v>2779.7691</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>49449.3125</v>
+        <v>39501.1532</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9871</v>
+        <v>39501.1532</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0137</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49449.3125</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0119</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.8917</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2779.7691</v>
       </c>
       <c r="F7" s="1">
         <v>558.9184</v>
       </c>
       <c r="G7" s="1">
-        <v>3338.6875</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>59425.2985</v>
+        <v>49477.1102</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9711</v>
+        <v>49477.1102</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9871</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59425.2985</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0004</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.2541</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3338.6875</v>
       </c>
       <c r="F8" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3953.9169</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>63934.045</v>
+        <v>53985.9088</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.704</v>
+        <v>53985.9088</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>17.9711</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.5</v>
       </c>
-      <c r="L8" s="1">
-        <v>1502.4094</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-8497.5906</v>
+        <v>1250.8961</v>
       </c>
       <c r="O8" s="1">
-        <v>1502.4094</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>65436.4544</v>
+        <v>-8749.1039</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0575</v>
+        <v>-0.09229999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.4549</v>
       </c>
       <c r="E9" s="1">
+        <v>3953.9169</v>
+      </c>
+      <c r="F9" s="1">
+        <v>727.9825</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>744.2565</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4698.1733</v>
-      </c>
       <c r="H9" s="1">
-        <v>72233.00569999999</v>
+        <v>60790.2857</v>
       </c>
       <c r="I9" s="1">
-        <v>81502.4094</v>
+        <v>1250.8961</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3477</v>
+        <v>62041.1818</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71250.8961</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.0203</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-11502.4094</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>72233.00569999999</v>
+        <v>-11250.8961</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0425</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.6183</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4681.8993</v>
       </c>
       <c r="F10" s="1">
         <v>640.2745</v>
       </c>
       <c r="G10" s="1">
-        <v>5338.4479</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>82945.0664</v>
+        <v>72744.0744</v>
       </c>
       <c r="I10" s="1">
-        <v>91502.4094</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.1403</v>
+        <v>72744.0744</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81250.8961</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3543</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>82945.0664</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.008699999999999999</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.0526</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5322.1739</v>
       </c>
       <c r="F11" s="1">
         <v>622.952</v>
       </c>
       <c r="G11" s="1">
-        <v>5961.3999</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>95199.38400000001</v>
+        <v>84991.3913</v>
       </c>
       <c r="I11" s="1">
-        <v>101502.4094</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.0266</v>
+        <v>84991.3913</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91250.8961</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1454</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>95199.38400000001</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0243</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.7562</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5945.1259</v>
       </c>
       <c r="F12" s="1">
         <v>634.6708</v>
       </c>
       <c r="G12" s="1">
-        <v>6596.0707</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>103390.1107</v>
+        <v>93186.8763</v>
       </c>
       <c r="I12" s="1">
-        <v>111502.4094</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.9044</v>
+        <v>93186.8763</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101250.8961</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.0309</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>103390.1107</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0172</v>
+        <v>-0.019</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.3605</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6579.7967</v>
       </c>
       <c r="F13" s="1">
         <v>651.0205</v>
       </c>
       <c r="G13" s="1">
-        <v>7247.0912</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>110741.3513</v>
+        <v>100544.5577</v>
       </c>
       <c r="I13" s="1">
-        <v>121502.4094</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.7657</v>
+        <v>100544.5577</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111250.8961</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.908</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>110741.3513</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0234</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>15.2796</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7230.8172</v>
       </c>
       <c r="F14" s="1">
-        <v>-7247.0912</v>
+        <v>-7230.8172</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109910.5906</v>
       </c>
       <c r="I14" s="1">
-        <v>121502.4094</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.7657</v>
+        <v>109910.5906</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111250.8961</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.3857</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>110157.9605</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>110157.9605</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110157.9605</v>
+        <v>109910.5906</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0877</v>
+        <v>-0.0057</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.806</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>561.6084</v>
       </c>
       <c r="G2" s="1">
-        <v>561.6084</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.163500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.806</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.163500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>18.3524</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>561.6084</v>
       </c>
       <c r="F3" s="1">
         <v>542.0657</v>
       </c>
       <c r="G3" s="1">
-        <v>1103.6742</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10253.3977</v>
       </c>
       <c r="I3" s="1">
-        <v>19948.2069</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0744</v>
+        <v>10253.3977</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9948.206899999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7138</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9948.206899999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>51.7931</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20201.7931</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0127</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.7873</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1103.6742</v>
       </c>
       <c r="F4" s="1">
         <v>565.1107</v>
       </c>
       <c r="G4" s="1">
-        <v>1668.7848</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29529.3146</v>
+        <v>19529.6248</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>51.7931</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9772</v>
+        <v>19581.4178</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1213</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10051.7931</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29529.3146</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0223</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>18.1269</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1668.7848</v>
       </c>
       <c r="F5" s="1">
         <v>551.6663</v>
       </c>
       <c r="G5" s="1">
-        <v>2220.4511</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40041.1735</v>
+        <v>30093.0301</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0144</v>
+        <v>30093.0301</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9772</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40041.1735</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0129</v>
+        <v>0.0173</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.8817</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2220.4511</v>
       </c>
       <c r="F6" s="1">
         <v>559.2309</v>
       </c>
       <c r="G6" s="1">
-        <v>2779.6821</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>49447.7648</v>
+        <v>39499.6055</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9877</v>
+        <v>39499.6055</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0144</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49447.7648</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0119</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.8917</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2779.6821</v>
       </c>
       <c r="F7" s="1">
         <v>558.9184</v>
       </c>
       <c r="G7" s="1">
-        <v>3338.6005</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>59423.7499</v>
+        <v>49475.5616</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9716</v>
+        <v>49475.5616</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9877</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59423.7499</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0004</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.2541</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3338.6005</v>
       </c>
       <c r="F8" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3953.8299</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>63932.6381</v>
+        <v>53984.502</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.7044</v>
+        <v>53984.502</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>17.9716</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.5</v>
       </c>
-      <c r="L8" s="1">
-        <v>1502.3702</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-8497.629800000001</v>
+        <v>1250.8569</v>
       </c>
       <c r="O8" s="1">
-        <v>1502.3702</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>65435.0083</v>
+        <v>-8749.143099999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0575</v>
+        <v>-0.09229999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.4549</v>
       </c>
       <c r="E9" s="1">
+        <v>3953.8299</v>
+      </c>
+      <c r="F9" s="1">
+        <v>727.9799</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>744.2539</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4698.0838</v>
-      </c>
       <c r="H9" s="1">
-        <v>72231.629</v>
+        <v>60788.948</v>
       </c>
       <c r="I9" s="1">
-        <v>81502.3702</v>
+        <v>1250.8569</v>
       </c>
       <c r="J9" s="1">
-        <v>17.348</v>
+        <v>62039.8049</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71250.8569</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.0207</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-11502.3702</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>72231.629</v>
+        <v>-11250.8569</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0425</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.6183</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4681.8098</v>
       </c>
       <c r="F10" s="1">
         <v>640.2745</v>
       </c>
       <c r="G10" s="1">
-        <v>5338.3584</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>82943.6752</v>
+        <v>72742.6832</v>
       </c>
       <c r="I10" s="1">
-        <v>91502.3702</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.1405</v>
+        <v>72742.6832</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81250.8569</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3546</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>82943.6752</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.008699999999999999</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.0526</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5322.0843</v>
       </c>
       <c r="F11" s="1">
         <v>622.952</v>
       </c>
       <c r="G11" s="1">
-        <v>5961.3104</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>95197.9541</v>
+        <v>84989.9614</v>
       </c>
       <c r="I11" s="1">
-        <v>101502.3702</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.0269</v>
+        <v>84989.9614</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91250.8569</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1457</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>95197.9541</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0243</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.7562</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5945.0364</v>
       </c>
       <c r="F12" s="1">
         <v>634.6708</v>
       </c>
       <c r="G12" s="1">
-        <v>6595.9812</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>103388.7072</v>
+        <v>93185.4728</v>
       </c>
       <c r="I12" s="1">
-        <v>111502.3702</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.9046</v>
+        <v>93185.4728</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101250.8569</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.0312</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>103388.7072</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0172</v>
+        <v>-0.019</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.3605</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6579.7072</v>
       </c>
       <c r="F13" s="1">
         <v>651.0205</v>
       </c>
       <c r="G13" s="1">
-        <v>7247.0017</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>110739.9831</v>
+        <v>100543.1895</v>
       </c>
       <c r="I13" s="1">
-        <v>121502.3702</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.7659</v>
+        <v>100543.1895</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111250.8569</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.9082</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>110739.9831</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0234</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>15.2796</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7230.7277</v>
       </c>
       <c r="F14" s="1">
-        <v>-7247.0017</v>
+        <v>-7230.7277</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109909.2296</v>
       </c>
       <c r="I14" s="1">
-        <v>121502.3702</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.7659</v>
+        <v>109909.2296</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111250.8569</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.3858</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>110156.5995</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>110156.5995</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110156.5995</v>
+        <v>109909.2296</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0877</v>
+        <v>-0.0057</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.2384</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.7688</v>
+        <v>15.3881</v>
       </c>
       <c r="D3" s="1">
-        <v>16.7652</v>
+        <v>15.3852</v>
       </c>
       <c r="E3" s="1">
-        <v>16.7655</v>
+        <v>15.3855</v>
       </c>
       <c r="F3" s="1">
-        <v>16.7657</v>
+        <v>15.3857</v>
       </c>
       <c r="G3" s="1">
-        <v>16.7659</v>
+        <v>15.3858</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.1451</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.2044</v>
+        <v>-0.1423</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.2039</v>
+        <v>-0.1417</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.204</v>
+        <v>-0.1418</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.204</v>
+        <v>-0.1419</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.2041</v>
+        <v>-0.142</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1156</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1084</v>
+        <v>0.109</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1086</v>
+        <v>0.1091</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1086</v>
+        <v>0.1091</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1086</v>
+        <v>0.1091</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1086</v>
+        <v>0.1091</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-1.4315</v>
       </c>
       <c r="C6" s="4">
-        <v>-2.0729</v>
+        <v>-1.4912</v>
       </c>
       <c r="D6" s="4">
-        <v>-2.0652</v>
+        <v>-1.4855</v>
       </c>
       <c r="E6" s="4">
-        <v>-2.0659</v>
+        <v>-1.4861</v>
       </c>
       <c r="F6" s="4">
-        <v>-2.0664</v>
+        <v>-1.4866</v>
       </c>
       <c r="G6" s="4">
-        <v>-2.067</v>
+        <v>-1.487</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1489</v>
+        <v>-0.2971</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1481</v>
+        <v>-0.1517</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1481</v>
+        <v>-0.1517</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1481</v>
+        <v>-0.1517</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1481</v>
+        <v>-0.1517</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1502.3299</v>
+        <v>1250.8166</v>
       </c>
       <c r="D8" s="1">
-        <v>1502.5034</v>
+        <v>1250.9901</v>
       </c>
       <c r="E8" s="1">
-        <v>1502.4485</v>
+        <v>1250.9352</v>
       </c>
       <c r="F8" s="1">
-        <v>1502.4094</v>
+        <v>1250.8961</v>
       </c>
       <c r="G8" s="1">
-        <v>1502.3702</v>
+        <v>1250.8569</v>
       </c>
     </row>
   </sheetData>
